--- a/Exercicios/Exercicio 1.4 Optus/Modelo/Optus Fisico.xlsx
+++ b/Exercicios/Exercicio 1.4 Optus/Modelo/Optus Fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Sprint 1 bd tarde\Senai_sprint1_bd\Exercicios\Exercicio 1.4 Optus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint 1 Bd\Senai_sprint1_bd\Exercicios\Exercicio 1.4 Optus\Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A8CD05-2ACB-406E-A37D-DAB6E73CEAA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE0808-691C-477C-9563-BFD360CDFA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CB6CC684-3C8F-41A0-AB2B-8E1AA022C24D}"/>
+    <workbookView xWindow="11475" yWindow="1335" windowWidth="15375" windowHeight="8325" xr2:uid="{CB6CC684-3C8F-41A0-AB2B-8E1AA022C24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Empresa</t>
   </si>
@@ -103,16 +103,84 @@
   </si>
   <si>
     <t>TipodePermissao</t>
+  </si>
+  <si>
+    <t>Optus</t>
+  </si>
+  <si>
+    <t>MamazZ</t>
+  </si>
+  <si>
+    <t>Leleo</t>
+  </si>
+  <si>
+    <t>5A5</t>
+  </si>
+  <si>
+    <t>6K7</t>
+  </si>
+  <si>
+    <t>maria@email.com</t>
+  </si>
+  <si>
+    <t>leonardo@email.com</t>
+  </si>
+  <si>
+    <t>Comum</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Fefeu</t>
+  </si>
+  <si>
+    <t>Fufu</t>
+  </si>
+  <si>
+    <t>Solidao</t>
+  </si>
+  <si>
+    <t>Roll'n'Rock</t>
+  </si>
+  <si>
+    <t>Nunca Pare</t>
+  </si>
+  <si>
+    <t>Loucos</t>
+  </si>
+  <si>
+    <t>Embora...</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Sertanejo</t>
+  </si>
+  <si>
+    <t>Modão</t>
+  </si>
+  <si>
+    <t>idUsuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,13 +203,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,25 +525,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E76512-159E-40E5-A460-C7738E78AE3B}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -524,12 +597,9 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
         <v>14</v>
       </c>
       <c r="R2" t="s">
@@ -539,7 +609,100 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>456</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -547,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>8</v>
       </c>
@@ -567,7 +730,65 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{F9CD8781-7519-47F4-9250-D7928F2914A6}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{C52587E7-79D9-4849-A4B8-8FC092DC9BB7}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Exercicios/Exercicio 1.4 Optus/Modelo/Optus Fisico.xlsx
+++ b/Exercicios/Exercicio 1.4 Optus/Modelo/Optus Fisico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint 1 Bd\Senai_sprint1_bd\Exercicios\Exercicio 1.4 Optus\Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE0808-691C-477C-9563-BFD360CDFA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C2E7F-1347-422A-9B30-1E544E94228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="1335" windowWidth="15375" windowHeight="8325" xr2:uid="{CB6CC684-3C8F-41A0-AB2B-8E1AA022C24D}"/>
+    <workbookView xWindow="3300" yWindow="1110" windowWidth="15375" windowHeight="8325" xr2:uid="{CB6CC684-3C8F-41A0-AB2B-8E1AA022C24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Empresa</t>
   </si>
@@ -163,6 +163,36 @@
   </si>
   <si>
     <t>idUsuarios</t>
+  </si>
+  <si>
+    <t>dataLançamento</t>
+  </si>
+  <si>
+    <t>quantMin</t>
+  </si>
+  <si>
+    <t>localizacao</t>
+  </si>
+  <si>
+    <t>Visualização</t>
+  </si>
+  <si>
+    <t>50min</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Desativo</t>
+  </si>
+  <si>
+    <t>Ativo</t>
   </si>
 </sst>
 </file>
@@ -207,9 +237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -525,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E76512-159E-40E5-A460-C7738E78AE3B}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +570,10 @@
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,9 +590,6 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -602,11 +631,17 @@
       <c r="O2" t="s">
         <v>14</v>
       </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -649,11 +684,17 @@
       <c r="O3" t="s">
         <v>37</v>
       </c>
-      <c r="R3">
-        <v>1</v>
+      <c r="P3" s="2">
+        <v>44413</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -687,19 +728,17 @@
       <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="R4">
-        <v>2</v>
+      <c r="P4" s="2">
+        <v>44414</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -729,6 +768,9 @@
       <c r="O7" t="s">
         <v>20</v>
       </c>
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E8">
@@ -749,6 +791,12 @@
       <c r="O8">
         <v>1</v>
       </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E9">
@@ -768,6 +816,12 @@
       </c>
       <c r="O9">
         <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -782,6 +836,20 @@
       </c>
       <c r="O10">
         <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
